--- a/ExtractSREO/Header Data/DataGroups.xlsx
+++ b/ExtractSREO/Header Data/DataGroups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycdu\source\repos\camgonzo1\ExtractSREO\ExtractSREO\Header Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2856B8-8227-46BC-95AA-81FA48D0B9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2750159-38F7-4FDA-8CA0-480196A71295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
   <si>
     <t>Address</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>Total D.S.C.R</t>
+  </si>
+  <si>
+    <t>Date Acquired</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
   <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -587,6 +590,7 @@
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -606,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -937,7 +941,9 @@
         <v>87</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>

--- a/ExtractSREO/Header Data/DataGroups.xlsx
+++ b/ExtractSREO/Header Data/DataGroups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycdu\source\repos\camgonzo1\ExtractSREO\ExtractSREO\Header Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2750159-38F7-4FDA-8CA0-480196A71295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5B3FDA-6037-4EE4-B881-EAEEC2AF0D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,8 +578,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/ExtractSREO/Header Data/DataGroups.xlsx
+++ b/ExtractSREO/Header Data/DataGroups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycdu\source\repos\camgonzo1\ExtractSREO\ExtractSREO\Header Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5B3FDA-6037-4EE4-B881-EAEEC2AF0D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44632F4-9C06-445F-B397-B2618F27F48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -610,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/ExtractSREO/Header Data/DataGroups.xlsx
+++ b/ExtractSREO/Header Data/DataGroups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycdu\source\repos\camgonzo1\ExtractSREO\ExtractSREO\Header Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\source\repos\ExtractSREO\ExtractSREO\Header Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44632F4-9C06-445F-B397-B2618F27F48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4380768-7412-49E9-B07C-9F33A4E9699C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
   <si>
     <t>Address</t>
   </si>
@@ -578,22 +578,22 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.73046875" customWidth="1"/>
+    <col min="2" max="2" width="16.1328125" customWidth="1"/>
+    <col min="3" max="3" width="16.265625" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" customWidth="1"/>
+    <col min="6" max="6" width="18.3984375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,11 +609,14 @@
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
       <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -687,7 +690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -759,7 +762,7 @@
       </c>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -814,7 +817,7 @@
       </c>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
@@ -860,7 +863,7 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>72</v>
       </c>
@@ -899,7 +902,7 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
@@ -933,7 +936,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>86</v>
       </c>
@@ -963,7 +966,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>89</v>
       </c>
@@ -991,7 +994,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
@@ -999,12 +1002,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="12.75" x14ac:dyDescent="0.35">
       <c r="L11" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1014,7 +1017,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1024,7 +1027,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -1034,7 +1037,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -1044,7 +1047,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -1054,7 +1057,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1064,7 +1067,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -1074,7 +1077,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -1084,7 +1087,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -1094,7 +1097,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -1104,7 +1107,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1114,7 +1117,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1124,7 +1127,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1134,7 +1137,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1160,7 +1163,7 @@
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1186,7 +1189,7 @@
       <c r="W45" s="2"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="D46" s="2"/>
@@ -1211,7 +1214,7 @@
       <c r="W46" s="2"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="E47" s="2"/>
@@ -1235,7 +1238,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -1258,7 +1261,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
@@ -1280,7 +1283,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="3"/>
@@ -1302,7 +1305,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
@@ -1324,11 +1327,11 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="12.75" x14ac:dyDescent="0.35">
       <c r="L53" s="1"/>
     </row>
   </sheetData>

--- a/ExtractSREO/Header Data/DataGroups.xlsx
+++ b/ExtractSREO/Header Data/DataGroups.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\source\repos\ExtractSREO\ExtractSREO\Header Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4380768-7412-49E9-B07C-9F33A4E9699C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF8CF82-8CFD-4266-B0F1-E494802496DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3893" yWindow="3893" windowWidth="18225" windowHeight="11332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
   <si>
     <t>Address</t>
   </si>
@@ -70,33 +82,18 @@
     <t>Asset Type</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Loan Type</t>
   </si>
   <si>
     <t>All-In Rate</t>
   </si>
   <si>
-    <t>I/O or Amort</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Cap Rate</t>
-  </si>
-  <si>
     <t>LTV</t>
   </si>
   <si>
-    <t>EGI</t>
-  </si>
-  <si>
     <t>Lender</t>
   </si>
   <si>
@@ -142,21 +139,12 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Nation</t>
-  </si>
-  <si>
-    <t>Current Status</t>
-  </si>
-  <si>
     <t>Fixed or Floating</t>
   </si>
   <si>
     <t>All In Rate</t>
   </si>
   <si>
-    <t>Interest Only or Amortizing Debt Service</t>
-  </si>
-  <si>
     <t>Market Value</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t>Loan-To-Value</t>
   </si>
   <si>
-    <t>Effective Gross Income</t>
-  </si>
-  <si>
     <t>Property</t>
   </si>
   <si>
@@ -205,9 +190,6 @@
     <t>L.T.V.</t>
   </si>
   <si>
-    <t>E.G.I</t>
-  </si>
-  <si>
     <t>Street Location</t>
   </si>
   <si>
@@ -220,9 +202,6 @@
     <t>Year Built</t>
   </si>
   <si>
-    <t>Occupancy at end of quarter</t>
-  </si>
-  <si>
     <t>Acquisition</t>
   </si>
   <si>
@@ -274,9 +253,6 @@
     <t>O.P.B.</t>
   </si>
   <si>
-    <t>D.S.C.R.</t>
-  </si>
-  <si>
     <t>Current N.O.I.</t>
   </si>
   <si>
@@ -286,28 +262,85 @@
     <t>Built (yr)</t>
   </si>
   <si>
-    <t>D.C.R.</t>
-  </si>
-  <si>
     <t>Full Property Address</t>
   </si>
   <si>
     <t>Constructed (yr)</t>
   </si>
   <si>
-    <t>Total D.C.R.</t>
-  </si>
-  <si>
     <t>Property Street Address City State Zip</t>
   </si>
   <si>
     <t>Total DSCR</t>
   </si>
   <si>
-    <t>Total D.S.C.R</t>
-  </si>
-  <si>
     <t>Date Acquired</t>
+  </si>
+  <si>
+    <t>Current Balance</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Property Type</t>
+  </si>
+  <si>
+    <t>All-in</t>
+  </si>
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Loan To Value</t>
+  </si>
+  <si>
+    <t>Amort Start Date</t>
+  </si>
+  <si>
+    <t>Amortization Start Date</t>
+  </si>
+  <si>
+    <t>Amort Date</t>
+  </si>
+  <si>
+    <t>Amortization Date</t>
+  </si>
+  <si>
+    <t>Amortization Start</t>
+  </si>
+  <si>
+    <t>Square Footage</t>
+  </si>
+  <si>
+    <t>Square Feet</t>
+  </si>
+  <si>
+    <t>Sq. Ft.</t>
+  </si>
+  <si>
+    <t>Sq. Feet</t>
+  </si>
+  <si>
+    <t>Feet</t>
+  </si>
+  <si>
+    <t>% Occupied</t>
+  </si>
+  <si>
+    <t>% Occupancy</t>
+  </si>
+  <si>
+    <t>Occupancy %</t>
+  </si>
+  <si>
+    <t>Debt Coverage Ratio</t>
+  </si>
+  <si>
+    <t>Debt Coverage</t>
   </si>
 </sst>
 </file>
@@ -576,10 +609,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X53"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -593,10 +626,13 @@
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -606,17 +642,62 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
         <v>10</v>
       </c>
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" t="s">
+        <v>86</v>
+      </c>
       <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -633,7 +714,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
@@ -660,194 +741,193 @@
         <v>15</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="3"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="2" t="s">
+      <c r="T4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="W4" s="2"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -855,40 +935,48 @@
       <c r="Q5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="3"/>
+      <c r="R5" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="T5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K6" s="3"/>
-      <c r="L6" s="2" t="s">
-        <v>78</v>
+      <c r="L6" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -897,32 +985,38 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
+      <c r="U6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -931,27 +1025,32 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+      <c r="U7" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="H8" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -965,22 +1064,20 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y8" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>76</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="K9" s="3"/>
-      <c r="L9" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -993,21 +1090,18 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="Y9" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="L11" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1017,7 +1111,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1027,7 +1121,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -1037,7 +1131,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -1047,7 +1141,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -1336,5 +1430,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExtractSREO/Header Data/DataGroups.xlsx
+++ b/ExtractSREO/Header Data/DataGroups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\source\repos\ExtractSREO\ExtractSREO\Header Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycdu\source\repos\camgonzo1\ExtractSREO\ExtractSREO\Header Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF8CF82-8CFD-4266-B0F1-E494802496DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF70F20-EA84-4CA9-B18F-B0AF2FF1FA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3893" yWindow="3893" windowWidth="18225" windowHeight="11332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
   <si>
     <t>Address</t>
   </si>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t>Debt Coverage</t>
+  </si>
+  <si>
+    <t>Credit Spread</t>
+  </si>
+  <si>
+    <t>Mortgage Lender</t>
+  </si>
+  <si>
+    <t>Mortage Holder</t>
   </si>
 </sst>
 </file>
@@ -611,22 +620,22 @@
   </sheetPr>
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.73046875" customWidth="1"/>
-    <col min="2" max="2" width="16.1328125" customWidth="1"/>
-    <col min="3" max="3" width="16.265625" customWidth="1"/>
-    <col min="4" max="4" width="22.3984375" customWidth="1"/>
-    <col min="5" max="5" width="24.3984375" customWidth="1"/>
-    <col min="6" max="6" width="18.3984375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +706,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -771,7 +780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -787,6 +796,9 @@
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
@@ -811,7 +823,9 @@
       <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
         <v>35</v>
@@ -837,7 +851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -849,6 +863,9 @@
       </c>
       <c r="E4" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>44</v>
@@ -898,7 +915,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -954,7 +971,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
@@ -997,7 +1014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>69</v>
       </c>
@@ -1034,7 +1051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>74</v>
       </c>
@@ -1068,7 +1085,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>76</v>
       </c>
@@ -1094,14 +1111,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1111,7 +1128,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1121,7 +1138,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -1131,7 +1148,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -1141,7 +1158,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -1151,7 +1168,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1161,7 +1178,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -1171,7 +1188,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -1181,7 +1198,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -1191,7 +1208,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -1201,7 +1218,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1211,7 +1228,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1221,7 +1238,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1231,7 +1248,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="44" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1257,7 +1274,7 @@
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1283,7 +1300,7 @@
       <c r="W45" s="2"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="D46" s="2"/>
@@ -1308,7 +1325,7 @@
       <c r="W46" s="2"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="E47" s="2"/>
@@ -1332,7 +1349,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -1355,7 +1372,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
@@ -1377,7 +1394,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="3"/>
@@ -1399,7 +1416,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
@@ -1421,11 +1438,11 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="1:24" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:24" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L53" s="1"/>
     </row>
   </sheetData>

--- a/ExtractSREO/Header Data/DataGroups.xlsx
+++ b/ExtractSREO/Header Data/DataGroups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycdu\source\repos\camgonzo1\ExtractSREO\ExtractSREO\Header Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF70F20-EA84-4CA9-B18F-B0AF2FF1FA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF55D96-8C5B-4F8D-9E44-808EE50E664A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2213" yWindow="5560" windowWidth="21600" windowHeight="11073" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="108">
   <si>
     <t>Address</t>
   </si>
@@ -268,9 +268,6 @@
     <t>Constructed (yr)</t>
   </si>
   <si>
-    <t>Property Street Address City State Zip</t>
-  </si>
-  <si>
     <t>Total DSCR</t>
   </si>
   <si>
@@ -350,6 +347,15 @@
   </si>
   <si>
     <t>Mortage Holder</t>
+  </si>
+  <si>
+    <t>Property Street Address</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Current Debt</t>
   </si>
 </sst>
 </file>
@@ -621,7 +627,7 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="O2" sqref="O2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -664,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -676,13 +682,13 @@
         <v>14</v>
       </c>
       <c r="N1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" t="s">
         <v>85</v>
-      </c>
-      <c r="P1" t="s">
-        <v>86</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>4</v>
@@ -697,10 +703,10 @@
         <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W1" t="s">
         <v>49</v>
@@ -750,10 +756,10 @@
         <v>15</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>16</v>
@@ -768,10 +774,10 @@
         <v>19</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>49</v>
@@ -797,7 +803,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>27</v>
@@ -824,7 +830,7 @@
         <v>34</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
@@ -840,13 +846,14 @@
         <v>39</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="Y3" s="2" t="s">
         <v>26</v>
       </c>
@@ -865,7 +872,7 @@
         <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>44</v>
@@ -889,7 +896,7 @@
         <v>50</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -904,13 +911,14 @@
         <v>51</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="Y4" s="2" t="s">
         <v>43</v>
       </c>
@@ -953,20 +961,19 @@
         <v>4</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
       <c r="Y5" s="2" t="s">
         <v>55</v>
       </c>
@@ -979,7 +986,7 @@
         <v>62</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>65</v>
@@ -990,7 +997,7 @@
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>68</v>
@@ -1003,13 +1010,12 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
       <c r="Y6" s="2" t="s">
         <v>63</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>69</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>71</v>
@@ -1030,7 +1036,7 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>73</v>
@@ -1043,10 +1049,9 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
       <c r="Y7" s="2" t="s">
         <v>70</v>
       </c>
@@ -1056,18 +1061,18 @@
         <v>74</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1080,7 +1085,6 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
       <c r="Y8" s="2" t="s">
         <v>75</v>
       </c>
@@ -1092,7 +1096,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="3"/>
@@ -1106,14 +1110,13 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
       <c r="Y9" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="L10" s="1"/>
     </row>

--- a/ExtractSREO/Header Data/DataGroups.xlsx
+++ b/ExtractSREO/Header Data/DataGroups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycdu\source\repos\camgonzo1\ExtractSREO\ExtractSREO\Header Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\source\repos\ExtractSREO\ExtractSREO\Header Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF55D96-8C5B-4F8D-9E44-808EE50E664A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB28D1FD-371D-4C8A-A3A4-F29DD149A8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2213" yWindow="5560" windowWidth="21600" windowHeight="11073" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3623" yWindow="6247" windowWidth="18225" windowHeight="11333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="117">
   <si>
     <t>Address</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>Built</t>
-  </si>
-  <si>
     <t>Occupancy</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>#units</t>
   </si>
   <si>
-    <t>Constructed</t>
-  </si>
-  <si>
     <t>Current Occupancy (%)</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
     <t># of Units</t>
   </si>
   <si>
-    <t>Year Constructed</t>
-  </si>
-  <si>
     <t>Current Occupancy</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>Number of Units</t>
   </si>
   <si>
-    <t>Year Built</t>
-  </si>
-  <si>
     <t>Acquisition</t>
   </si>
   <si>
@@ -223,9 +211,6 @@
     <t>Unit Count</t>
   </si>
   <si>
-    <t>Date Built</t>
-  </si>
-  <si>
     <t>Occupancy Status</t>
   </si>
   <si>
@@ -244,9 +229,6 @@
     <t>Property Address</t>
   </si>
   <si>
-    <t>Date Constructed</t>
-  </si>
-  <si>
     <t>Origination Date</t>
   </si>
   <si>
@@ -259,15 +241,9 @@
     <t>Street</t>
   </si>
   <si>
-    <t>Built (yr)</t>
-  </si>
-  <si>
     <t>Full Property Address</t>
   </si>
   <si>
-    <t>Constructed (yr)</t>
-  </si>
-  <si>
     <t>Total DSCR</t>
   </si>
   <si>
@@ -356,6 +332,57 @@
   </si>
   <si>
     <t>Current Debt</t>
+  </si>
+  <si>
+    <t>Building Name</t>
+  </si>
+  <si>
+    <t>Building Name/Number</t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>Current Occupancy %</t>
+  </si>
+  <si>
+    <t>Acquisition Date (yr)</t>
+  </si>
+  <si>
+    <t>Annual Debt Service</t>
+  </si>
+  <si>
+    <t>NOI  (Period Ending YTD 2021)</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Loan Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lener Name </t>
+  </si>
+  <si>
+    <t>Occ. %</t>
+  </si>
+  <si>
+    <t>Total Loan</t>
+  </si>
+  <si>
+    <t>Outstanding Loan(s)</t>
+  </si>
+  <si>
+    <t>Total Loan(s)</t>
+  </si>
+  <si>
+    <t>Combined Annual Debt Service</t>
+  </si>
+  <si>
+    <t>Lender(s)</t>
+  </si>
+  <si>
+    <t>Debt Service at Stressed Interest Rate</t>
   </si>
 </sst>
 </file>
@@ -401,11 +428,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,22 +654,22 @@
   </sheetPr>
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.73046875" customWidth="1"/>
+    <col min="2" max="2" width="16.1328125" customWidth="1"/>
+    <col min="3" max="3" width="16.265625" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" customWidth="1"/>
+    <col min="6" max="6" width="18.3984375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,61 +686,61 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
       <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
       <c r="N1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="O1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="P1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="V1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="W1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -729,230 +757,230 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="W2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="U3" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="N4" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -961,85 +989,101 @@
         <v>4</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="W5" s="3"/>
-      <c r="Y5" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="L6" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="R6" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="W6" s="3"/>
-      <c r="Y6" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="G7" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="L7" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1049,32 +1093,34 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="W7" s="3"/>
-      <c r="Y7" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -1085,18 +1131,21 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="Y8" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y8" s="2"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="3"/>
@@ -1110,18 +1159,26 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="Y9" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:25" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="J11" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1130,8 +1187,11 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1141,7 +1201,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -1151,7 +1211,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -1161,7 +1221,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -1171,7 +1231,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1181,7 +1241,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -1191,7 +1251,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -1201,7 +1261,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -1211,7 +1271,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -1221,7 +1281,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1231,7 +1291,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1241,7 +1301,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1251,7 +1311,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1277,7 +1337,7 @@
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1303,7 +1363,7 @@
       <c r="W45" s="2"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="D46" s="2"/>
@@ -1328,7 +1388,7 @@
       <c r="W46" s="2"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="E47" s="2"/>
@@ -1352,7 +1412,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -1375,7 +1435,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
@@ -1397,7 +1457,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="3"/>
@@ -1419,7 +1479,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
@@ -1441,11 +1501,11 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="12.75" x14ac:dyDescent="0.35">
       <c r="L53" s="1"/>
     </row>
   </sheetData>

--- a/ExtractSREO/Header Data/DataGroups.xlsx
+++ b/ExtractSREO/Header Data/DataGroups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\source\repos\ExtractSREO\ExtractSREO\Header Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycdu\source\repos\camgonzo1\ExtractSREO\ExtractSREO\Header Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB28D1FD-371D-4C8A-A3A4-F29DD149A8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF55D96-8C5B-4F8D-9E44-808EE50E664A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3623" yWindow="6247" windowWidth="18225" windowHeight="11333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2213" yWindow="5560" windowWidth="21600" windowHeight="11073" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="108">
   <si>
     <t>Address</t>
   </si>
@@ -58,6 +58,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>Built</t>
+  </si>
+  <si>
     <t>Occupancy</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t>#units</t>
   </si>
   <si>
+    <t>Constructed</t>
+  </si>
+  <si>
     <t>Current Occupancy (%)</t>
   </si>
   <si>
@@ -157,6 +163,9 @@
     <t># of Units</t>
   </si>
   <si>
+    <t>Year Constructed</t>
+  </si>
+  <si>
     <t>Current Occupancy</t>
   </si>
   <si>
@@ -190,6 +199,9 @@
     <t>Number of Units</t>
   </si>
   <si>
+    <t>Year Built</t>
+  </si>
+  <si>
     <t>Acquisition</t>
   </si>
   <si>
@@ -211,6 +223,9 @@
     <t>Unit Count</t>
   </si>
   <si>
+    <t>Date Built</t>
+  </si>
+  <si>
     <t>Occupancy Status</t>
   </si>
   <si>
@@ -229,6 +244,9 @@
     <t>Property Address</t>
   </si>
   <si>
+    <t>Date Constructed</t>
+  </si>
+  <si>
     <t>Origination Date</t>
   </si>
   <si>
@@ -241,9 +259,15 @@
     <t>Street</t>
   </si>
   <si>
+    <t>Built (yr)</t>
+  </si>
+  <si>
     <t>Full Property Address</t>
   </si>
   <si>
+    <t>Constructed (yr)</t>
+  </si>
+  <si>
     <t>Total DSCR</t>
   </si>
   <si>
@@ -332,57 +356,6 @@
   </si>
   <si>
     <t>Current Debt</t>
-  </si>
-  <si>
-    <t>Building Name</t>
-  </si>
-  <si>
-    <t>Building Name/Number</t>
-  </si>
-  <si>
-    <t>Interest Rate</t>
-  </si>
-  <si>
-    <t>Current Occupancy %</t>
-  </si>
-  <si>
-    <t>Acquisition Date (yr)</t>
-  </si>
-  <si>
-    <t>Annual Debt Service</t>
-  </si>
-  <si>
-    <t>NOI  (Period Ending YTD 2021)</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>Loan Balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lener Name </t>
-  </si>
-  <si>
-    <t>Occ. %</t>
-  </si>
-  <si>
-    <t>Total Loan</t>
-  </si>
-  <si>
-    <t>Outstanding Loan(s)</t>
-  </si>
-  <si>
-    <t>Total Loan(s)</t>
-  </si>
-  <si>
-    <t>Combined Annual Debt Service</t>
-  </si>
-  <si>
-    <t>Lender(s)</t>
-  </si>
-  <si>
-    <t>Debt Service at Stressed Interest Rate</t>
   </si>
 </sst>
 </file>
@@ -428,12 +401,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,22 +626,22 @@
   </sheetPr>
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.73046875" customWidth="1"/>
-    <col min="2" max="2" width="16.1328125" customWidth="1"/>
-    <col min="3" max="3" width="16.265625" customWidth="1"/>
-    <col min="4" max="4" width="22.3984375" customWidth="1"/>
-    <col min="5" max="5" width="24.3984375" customWidth="1"/>
-    <col min="6" max="6" width="18.3984375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,61 +658,61 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="O1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="P1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="V1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -757,230 +729,230 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -989,101 +961,85 @@
         <v>4</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="Y5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="K6" s="3"/>
       <c r="L6" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y6" s="2"/>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="Y6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>69</v>
+      </c>
       <c r="G7" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="K7" s="3"/>
       <c r="L7" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1093,34 +1049,32 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y7" s="2"/>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="Y7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>106</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -1131,21 +1085,18 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="Y8" s="2"/>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y8" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="3"/>
@@ -1159,26 +1110,18 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="Y9" s="2"/>
-    </row>
-    <row r="10" spans="1:25" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="Y9" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="J11" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1187,11 +1130,8 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="J12" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1201,7 +1141,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -1211,7 +1151,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -1221,7 +1161,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -1231,7 +1171,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1241,7 +1181,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -1251,7 +1191,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -1261,7 +1201,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -1271,7 +1211,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -1281,7 +1221,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1291,7 +1231,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1301,7 +1241,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1311,7 +1251,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="44" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1337,7 +1277,7 @@
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1363,7 +1303,7 @@
       <c r="W45" s="2"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="D46" s="2"/>
@@ -1388,7 +1328,7 @@
       <c r="W46" s="2"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="E47" s="2"/>
@@ -1412,7 +1352,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -1435,7 +1375,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
@@ -1457,7 +1397,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="3"/>
@@ -1479,7 +1419,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
@@ -1501,11 +1441,11 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="1:24" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:24" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L53" s="1"/>
     </row>
   </sheetData>
